--- a/static/Egyéb/Cikkek.xlsx
+++ b/static/Egyéb/Cikkek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takat\OneDrive\Documents\Programming\Blog\eti-blog\static\Egyéb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE98449-177C-4B55-BB05-911299E05A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD6CC47-E28E-4CA5-B80D-AC162D99D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBAF3989-5B2F-47AA-B1A5-8E270176463E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cikk</t>
   </si>
@@ -81,25 +82,31 @@
   </si>
   <si>
     <t>Állapot</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Nvidia AI</t>
+  </si>
+  <si>
+    <t>Magánnyugdíjpénztárak</t>
+  </si>
+  <si>
+    <t>Hindenburg research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C6FBEE-F6F4-46C4-BA36-9826901C8A5F}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -552,6 +559,38 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
     </row>

--- a/static/Egyéb/Cikkek.xlsx
+++ b/static/Egyéb/Cikkek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takat\OneDrive\Documents\Programming\Blog\eti-blog\static\Egyéb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD6CC47-E28E-4CA5-B80D-AC162D99D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208E1D32-1BCF-4E55-837B-CC02494DDF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBAF3989-5B2F-47AA-B1A5-8E270176463E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Cikk</t>
   </si>
@@ -78,9 +77,6 @@
     <t>Ötletek</t>
   </si>
   <si>
-    <t>Befektetők összehasonlítása</t>
-  </si>
-  <si>
     <t>Állapot</t>
   </si>
   <si>
@@ -94,6 +90,15 @@
   </si>
   <si>
     <t>Hindenburg research</t>
+  </si>
+  <si>
+    <t>Befalapok összehasonlítása</t>
+  </si>
+  <si>
+    <t>Export korlátozások</t>
+  </si>
+  <si>
+    <t>Black-Scholes</t>
   </si>
 </sst>
 </file>
@@ -490,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C6FBEE-F6F4-46C4-BA36-9826901C8A5F}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -535,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -556,15 +561,15 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -572,7 +577,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -580,7 +585,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -588,9 +593,25 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
